--- a/Modules/VU/VU_BOM_THT.xlsx
+++ b/Modules/VU/VU_BOM_THT.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\My-Dev\Modular Synth\Avalon Harmonics\VU\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8724A2D-522C-4F10-A0FA-24CEC737B145}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{723E56D9-B1A8-49FE-B930-814704269A70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="VU" sheetId="1" r:id="rId1"/>
+    <sheet name="BOM" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="141">
   <si>
     <t>Qty</t>
   </si>
@@ -368,9 +368,6 @@
     <t>***** Use a different IC for different VU response cuirve! LM3915 and LM3916 might be difficult to find. See the list below. NOTE: I was supplied relabeled LM3914 chips when I ordered the other ones. They were essentially "fake".</t>
   </si>
   <si>
-    <t>****** Solder the plastic side of the angled header on the J_B side, and the metal on J_A side. Cut off the excess length.</t>
-  </si>
-  <si>
     <t>B20k</t>
   </si>
   <si>
@@ -630,6 +627,9 @@
     </r>
   </si>
   <si>
+    <t>Avalon Harmonics VU (THT)</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <u/>
@@ -639,11 +639,106 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
+      <t>J_B1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>*******</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>J_B2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>*******</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>J_B3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>*******</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>J_IN</t>
     </r>
     <r>
       <rPr>
         <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>******</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
@@ -685,92 +780,10 @@
     </r>
   </si>
   <si>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>J_B1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>******</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>J_B2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>******</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>J_B3</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>******</t>
-    </r>
-  </si>
-  <si>
-    <t>Avalon Harmonics VU (THT)</t>
+    <t>****** IMPORTANT: If you have v1.0 Front Board, please solder the 2 joints together like shown on the image below. Otherwise, a buzzing sound could be heard when nothing is plugged into the IN jack.</t>
+  </si>
+  <si>
+    <t>******* Solder the plastic side of the angled header on the J_B side, and the metal on J_A side. Cut off the excess length.</t>
   </si>
 </sst>
 </file>
@@ -1398,6 +1411,61 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1295400</xdr:colOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>163036</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6EF44888-1F46-424D-923B-759D21A5E312}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="381000" y="9582150"/>
+          <a:ext cx="4162425" cy="4925536"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1687,23 +1755,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J48"/>
+  <dimension ref="A1:J49"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="D35" sqref="D35"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5.7109375" customWidth="1"/>
     <col min="2" max="2" width="15.140625" customWidth="1"/>
     <col min="3" max="3" width="27.85546875" customWidth="1"/>
-    <col min="4" max="4" width="33.7109375" customWidth="1"/>
+    <col min="4" max="4" width="36.28515625" customWidth="1"/>
     <col min="5" max="5" width="23.5703125" customWidth="1"/>
     <col min="6" max="6" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="7" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
@@ -1727,7 +1797,7 @@
       </c>
       <c r="G2" s="1"/>
       <c r="J2" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
@@ -1738,7 +1808,7 @@
         <v>100</v>
       </c>
       <c r="C3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D3" t="s">
         <v>51</v>
@@ -1747,7 +1817,7 @@
         <v>21</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="J3" s="3" t="s">
         <v>31</v>
@@ -1761,7 +1831,7 @@
         <v>11</v>
       </c>
       <c r="C4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D4" t="s">
         <v>46</v>
@@ -1770,7 +1840,7 @@
         <v>21</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="J4" s="3" t="s">
         <v>31</v>
@@ -1784,16 +1854,16 @@
         <v>10</v>
       </c>
       <c r="C5" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D5" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E5" t="s">
         <v>21</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="J5" s="3" t="s">
         <v>31</v>
@@ -1807,7 +1877,7 @@
         <v>47</v>
       </c>
       <c r="C6" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D6" t="s">
         <v>48</v>
@@ -1816,7 +1886,7 @@
         <v>21</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="J6" s="3" t="s">
         <v>31</v>
@@ -1830,7 +1900,7 @@
         <v>9</v>
       </c>
       <c r="C7" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D7" t="s">
         <v>91</v>
@@ -1839,7 +1909,7 @@
         <v>21</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="J7" s="3" t="s">
         <v>31</v>
@@ -1853,7 +1923,7 @@
         <v>49</v>
       </c>
       <c r="C8" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D8" t="s">
         <v>50</v>
@@ -1865,7 +1935,7 @@
         <v>31</v>
       </c>
       <c r="J8" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
@@ -1873,7 +1943,7 @@
         <v>1</v>
       </c>
       <c r="B9" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C9" t="s">
         <v>84</v>
@@ -1885,10 +1955,10 @@
         <v>85</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="J9" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
@@ -1908,10 +1978,10 @@
         <v>85</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="J10" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
@@ -1922,19 +1992,19 @@
         <v>57</v>
       </c>
       <c r="C11" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D11" t="s">
         <v>58</v>
       </c>
       <c r="E11" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="J11" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
@@ -1945,19 +2015,19 @@
         <v>6</v>
       </c>
       <c r="C12" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D12" t="s">
         <v>52</v>
       </c>
       <c r="E12" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="J12" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
@@ -1968,19 +2038,19 @@
         <v>54</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D13" t="s">
         <v>56</v>
       </c>
       <c r="E13" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F13" s="3" t="s">
         <v>55</v>
       </c>
       <c r="J13" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
@@ -1991,19 +2061,19 @@
         <v>5</v>
       </c>
       <c r="C14" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D14" t="s">
         <v>53</v>
       </c>
       <c r="E14" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="J14" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
@@ -2023,10 +2093,10 @@
         <v>22</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="J15" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
@@ -2046,10 +2116,10 @@
         <v>23</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="J16" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
@@ -2069,7 +2139,7 @@
         <v>29</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="J17" s="3" t="s">
         <v>32</v>
@@ -2092,7 +2162,7 @@
         <v>29</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="J18" s="3" t="s">
         <v>32</v>
@@ -2115,10 +2185,10 @@
         <v>17</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="J19" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
@@ -2141,7 +2211,7 @@
         <v>64</v>
       </c>
       <c r="J20" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
@@ -2161,10 +2231,10 @@
         <v>26</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="J21" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
@@ -2178,16 +2248,16 @@
         <v>14</v>
       </c>
       <c r="D22" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E22" t="s">
         <v>70</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="J22" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
@@ -2201,16 +2271,16 @@
         <v>14</v>
       </c>
       <c r="D23" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E23" t="s">
         <v>13</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="J23" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
@@ -2224,16 +2294,16 @@
         <v>14</v>
       </c>
       <c r="D24" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E24" t="s">
         <v>71</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="J24" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
@@ -2261,13 +2331,13 @@
         <v>3</v>
       </c>
       <c r="B26" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C26" t="s">
         <v>33</v>
       </c>
       <c r="D26" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="E26" t="s">
         <v>25</v>
@@ -2276,7 +2346,7 @@
         <v>34</v>
       </c>
       <c r="J26" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
@@ -2290,16 +2360,16 @@
         <v>79</v>
       </c>
       <c r="D27" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E27" t="s">
         <v>24</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="J27" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
@@ -2319,10 +2389,10 @@
         <v>24</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="J28" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
@@ -2342,10 +2412,10 @@
         <v>24</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="J29" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
@@ -2365,7 +2435,7 @@
         <v>37</v>
       </c>
       <c r="J31" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
@@ -2385,7 +2455,7 @@
         <v>39</v>
       </c>
       <c r="J32" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
@@ -2405,7 +2475,7 @@
         <v>83</v>
       </c>
       <c r="J33" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.25">
@@ -2425,7 +2495,7 @@
         <v>90</v>
       </c>
       <c r="J34" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.25">
@@ -2433,7 +2503,7 @@
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B36" s="8" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.25">
@@ -2456,7 +2526,7 @@
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B41" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.25">
@@ -2466,26 +2536,31 @@
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B43" s="4" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A45" s="1" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B44" s="4" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A46" s="1" t="s">
         <v>42</v>
-      </c>
-    </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B46" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B47" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B48" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="49" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B49" t="s">
         <v>45</v>
       </c>
     </row>
@@ -2531,5 +2606,6 @@
     <hyperlink ref="F18" r:id="rId38" xr:uid="{FC450F80-CCB0-4694-BF61-DF1D3F2AF604}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId39"/>
 </worksheet>
 </file>